--- a/output -dynamic-template-mult-sheet.xlsx
+++ b/output -dynamic-template-mult-sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>{{title}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,9 @@
     <t>true</t>
   </si>
   <si>
+    <t>这是第二个标题啊啊啊啊啊</t>
+  </si>
+  <si>
     <t>浙江省</t>
   </si>
   <si>
@@ -195,7 +198,7 @@
     <t>庄市大道</t>
   </si>
   <si>
-    <t>2024-04-21T17:34:15.349</t>
+    <t>2024-04-21T17:41:35.309</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -855,10 +858,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>30</v>
@@ -869,10 +872,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -880,10 +883,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -891,10 +894,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
